--- a/Proyectos/2015/11/P1339 - DA3 - CBANT, Héctor Antonio Núñez Ruiz_OC/Planeación/PTL_Plan_proyecto.xlsx
+++ b/Proyectos/2015/11/P1339 - DA3 - CBANT, Héctor Antonio Núñez Ruiz_OC/Planeación/PTL_Plan_proyecto.xlsx
@@ -1540,15 +1540,15 @@
     <xf numFmtId="0" fontId="2" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4820,10 +4820,10 @@
       <c r="D5"/>
     </row>
     <row r="6" spans="1:1023" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="131" t="s">
+      <c r="A6" s="128" t="s">
         <v>96</v>
       </c>
-      <c r="B6" s="131"/>
+      <c r="B6" s="128"/>
       <c r="C6"/>
       <c r="D6"/>
     </row>
@@ -4947,7 +4947,9 @@
       <c r="C18" s="7">
         <v>42349</v>
       </c>
-      <c r="D18" s="7"/>
+      <c r="D18" s="7">
+        <v>42346</v>
+      </c>
     </row>
     <row r="19" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A19" s="13"/>
@@ -4994,10 +4996,10 @@
       <c r="C25" s="10"/>
     </row>
     <row r="26" spans="1:4" ht="53.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="129" t="s">
+      <c r="A26" s="130" t="s">
         <v>99</v>
       </c>
-      <c r="B26" s="129"/>
+      <c r="B26" s="130"/>
       <c r="C26" s="10"/>
     </row>
     <row r="27" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -5007,10 +5009,10 @@
       <c r="B27" s="126"/>
     </row>
     <row r="28" spans="1:4" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="128" t="s">
+      <c r="A28" s="129" t="s">
         <v>100</v>
       </c>
-      <c r="B28" s="129"/>
+      <c r="B28" s="130"/>
     </row>
     <row r="29" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="126" t="s">
@@ -5019,18 +5021,13 @@
       <c r="B29" s="126"/>
     </row>
     <row r="30" spans="1:4" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="130" t="s">
+      <c r="A30" s="131" t="s">
         <v>33</v>
       </c>
-      <c r="B30" s="130"/>
+      <c r="B30" s="131"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
     <mergeCell ref="A27:B27"/>
     <mergeCell ref="A28:B28"/>
     <mergeCell ref="A29:B29"/>
@@ -5040,6 +5037,11 @@
     <mergeCell ref="A23:B23"/>
     <mergeCell ref="A25:B25"/>
     <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A28" r:id="rId1"/>
